--- a/DFT Calculations/gp_start_folder_empty/pyrmd_extracted_properties.xlsx
+++ b/DFT Calculations/gp_start_folder_empty/pyrmd_extracted_properties.xlsx
@@ -981,7 +981,7 @@
         <v>386.054629647808</v>
       </c>
       <c r="AD2">
-        <v>0.9220310913627781</v>
+        <v>0.9220310913627778</v>
       </c>
       <c r="AE2">
         <v>-0.41932</v>
@@ -1551,7 +1551,7 @@
         <v>509.7804314457763</v>
       </c>
       <c r="AD5">
-        <v>0.882688368483469</v>
+        <v>0.8826883684834691</v>
       </c>
       <c r="AE5">
         <v>-0.43804</v>
@@ -1742,7 +1742,7 @@
         <v>508.6268122097481</v>
       </c>
       <c r="AD6">
-        <v>0.8832002689267217</v>
+        <v>0.8832002689267219</v>
       </c>
       <c r="AE6">
         <v>-0.44259</v>
@@ -2208,7 +2208,7 @@
         <v>0.8008381022775598</v>
       </c>
       <c r="BF8">
-        <v>8.90460677611978E-05</v>
+        <v>8.904638694046318E-05</v>
       </c>
       <c r="BG8">
         <v>1.338496836833523E-05</v>
@@ -2315,7 +2315,7 @@
         <v>336.3845772283227</v>
       </c>
       <c r="AD9">
-        <v>0.9357330512561504</v>
+        <v>0.9357330512561503</v>
       </c>
       <c r="AE9">
         <v>-0.63032</v>
@@ -2584,13 +2584,13 @@
         <v>3.267849732684239</v>
       </c>
       <c r="BD10">
-        <v>5.824048921953303</v>
+        <v>5.824048921953299</v>
       </c>
       <c r="BE10">
         <v>0.7911850588381423</v>
       </c>
       <c r="BF10">
-        <v>0.2128773178249958</v>
+        <v>0.2128773178248623</v>
       </c>
       <c r="BG10">
         <v>0.03189131270549826</v>
@@ -3079,7 +3079,7 @@
         <v>383.8971885949264</v>
       </c>
       <c r="AD13">
-        <v>0.9197499703959033</v>
+        <v>0.9197499703959032</v>
       </c>
       <c r="AE13">
         <v>-0.44215</v>
